--- a/data/trans_orig/P36BPD02_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD02_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>68206</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47390</v>
+        <v>48022</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>91083</v>
+        <v>92872</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1926623331997033</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1338623686114253</v>
+        <v>0.1356484864435115</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2572833866994602</v>
+        <v>0.2623365538688828</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -762,19 +762,19 @@
         <v>93591</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>74116</v>
+        <v>73143</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>115072</v>
+        <v>117124</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2728818203118717</v>
+        <v>0.2728818203118718</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2160990326498914</v>
+        <v>0.2132607135269648</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3355129498653833</v>
+        <v>0.3414962041900131</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>92</v>
@@ -783,19 +783,19 @@
         <v>161797</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>133018</v>
+        <v>133736</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>194979</v>
+        <v>195392</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2321363686789306</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1908460841781069</v>
+        <v>0.1918762214455185</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2797428392791915</v>
+        <v>0.2803352000992673</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>171386</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>141627</v>
+        <v>139457</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>199033</v>
+        <v>199655</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4841152910086036</v>
+        <v>0.4841152910086035</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4000544458749438</v>
+        <v>0.3939241639598377</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5622089061526273</v>
+        <v>0.563966459277108</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>88</v>
@@ -833,19 +833,19 @@
         <v>158854</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>134810</v>
+        <v>135966</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>182184</v>
+        <v>186156</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4631678192686591</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3930636114102983</v>
+        <v>0.3964346002160559</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5311910425021881</v>
+        <v>0.5427717033179689</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>167</v>
@@ -854,19 +854,19 @@
         <v>330241</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>293488</v>
+        <v>288809</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>368655</v>
+        <v>368996</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4738075556636184</v>
+        <v>0.4738075556636185</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4210769731041265</v>
+        <v>0.4143641280813397</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5289218296717946</v>
+        <v>0.5294114160856751</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>114427</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>87663</v>
+        <v>88911</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>146053</v>
+        <v>143900</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3232223757916932</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2476227269099945</v>
+        <v>0.2511455410193699</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4125559721829671</v>
+        <v>0.4064729691107691</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>53</v>
@@ -904,19 +904,19 @@
         <v>90528</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>69084</v>
+        <v>69472</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>114134</v>
+        <v>113509</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.263950360419469</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2014256429050948</v>
+        <v>0.2025569797905631</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3327772459873017</v>
+        <v>0.3309552602719398</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>98</v>
@@ -925,19 +925,19 @@
         <v>204955</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>170931</v>
+        <v>172676</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>243844</v>
+        <v>245850</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2940560756574509</v>
+        <v>0.294056075657451</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2452411712780694</v>
+        <v>0.2477448779696225</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3498519940841782</v>
+        <v>0.352729841752045</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>95688</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>77399</v>
+        <v>73560</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>119780</v>
+        <v>118456</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2085683339753192</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1687038690985333</v>
+        <v>0.1603375589561444</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2610816670296054</v>
+        <v>0.2581946966031431</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>95</v>
@@ -1050,19 +1050,19 @@
         <v>99565</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>81651</v>
+        <v>81720</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>118375</v>
+        <v>118555</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2098856891657712</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1721239455624356</v>
+        <v>0.1722691268389714</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2495378220556412</v>
+        <v>0.2499173922996724</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>156</v>
@@ -1071,19 +1071,19 @@
         <v>195253</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>169067</v>
+        <v>170322</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>224001</v>
+        <v>225041</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2092380168427108</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1811767002103243</v>
+        <v>0.1825222793661031</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2400454135529282</v>
+        <v>0.2411601096663427</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>192316</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>166374</v>
+        <v>163430</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>219995</v>
+        <v>219636</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4191859995937445</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3626422802814426</v>
+        <v>0.3562244715159502</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4795176060491402</v>
+        <v>0.4787354040318799</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>186</v>
@@ -1121,19 +1121,19 @@
         <v>202397</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>179990</v>
+        <v>180382</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>225831</v>
+        <v>224495</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.4266599238284103</v>
+        <v>0.4266599238284104</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3794257685741142</v>
+        <v>0.3802502451084437</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4760580579026794</v>
+        <v>0.4732428842068819</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>314</v>
@@ -1142,19 +1142,19 @@
         <v>394713</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>357002</v>
+        <v>360218</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>426200</v>
+        <v>428923</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.422985399367181</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3825727590669726</v>
+        <v>0.3860194259585556</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4567273694306452</v>
+        <v>0.4596461857789041</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>170780</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>142197</v>
+        <v>143838</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>196239</v>
+        <v>200254</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3722456664309363</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3099442358035665</v>
+        <v>0.3135209052968146</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4277365986380808</v>
+        <v>0.4364885190683885</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>159</v>
@@ -1192,19 +1192,19 @@
         <v>172414</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>150194</v>
+        <v>153471</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>193325</v>
+        <v>195932</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3634543870058183</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.316612943398083</v>
+        <v>0.3235209484909074</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4075354702347859</v>
+        <v>0.4130318755508297</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>264</v>
@@ -1213,19 +1213,19 @@
         <v>343194</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>312117</v>
+        <v>309538</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>378546</v>
+        <v>374322</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3677765837901081</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3344731697441697</v>
+        <v>0.3317099451002337</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.40566079356115</v>
+        <v>0.401133907544137</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>114842</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>92353</v>
+        <v>95178</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>134964</v>
+        <v>135767</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1926816980078006</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1549497775760722</v>
+        <v>0.1596900400560743</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2264418779272548</v>
+        <v>0.2277901006862419</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>118</v>
@@ -1338,19 +1338,19 @@
         <v>87359</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>73230</v>
+        <v>73488</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>102183</v>
+        <v>104096</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1448122231173016</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1213904928560555</v>
+        <v>0.1218194399441042</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1693849748894061</v>
+        <v>0.1725572307289476</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>220</v>
@@ -1359,19 +1359,19 @@
         <v>202201</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>180056</v>
+        <v>177683</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>230709</v>
+        <v>228194</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1686025516535739</v>
+        <v>0.1686025516535738</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1501375310875248</v>
+        <v>0.1481585900267078</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1923739050495512</v>
+        <v>0.1902764565056206</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>265774</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>237197</v>
+        <v>240345</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>292612</v>
+        <v>291141</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4459141295763679</v>
+        <v>0.4459141295763678</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3979680302212311</v>
+        <v>0.403250194140015</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4909430806916045</v>
+        <v>0.4884744234572577</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>369</v>
@@ -1409,19 +1409,19 @@
         <v>273261</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>252961</v>
+        <v>252464</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>295732</v>
+        <v>294231</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4529762272893569</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4193254829422408</v>
+        <v>0.4185027299186178</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4902256253116468</v>
+        <v>0.4877376377791718</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>605</v>
@@ -1430,19 +1430,19 @@
         <v>539034</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>507081</v>
+        <v>506537</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>571033</v>
+        <v>575012</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4494664828200142</v>
+        <v>0.4494664828200141</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4228229312111463</v>
+        <v>0.4223691779473568</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4761478728103908</v>
+        <v>0.4794656729095469</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>215404</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>190910</v>
+        <v>191603</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>241373</v>
+        <v>239764</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3614041724158317</v>
+        <v>0.3614041724158316</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3203073915758346</v>
+        <v>0.3214705242834187</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4049752768858004</v>
+        <v>0.4022745305798366</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>337</v>
@@ -1480,19 +1480,19 @@
         <v>242637</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>223195</v>
+        <v>222345</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>262899</v>
+        <v>264789</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4022115495933415</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3699836714549732</v>
+        <v>0.3685741977715981</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4357996495513233</v>
+        <v>0.4389333597019506</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>528</v>
@@ -1501,19 +1501,19 @@
         <v>458041</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>426844</v>
+        <v>423287</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>488557</v>
+        <v>488845</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.381930965526412</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3559178567672838</v>
+        <v>0.352952267245982</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4073768530617743</v>
+        <v>0.4076171264017495</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>89950</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>73058</v>
+        <v>74079</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>108898</v>
+        <v>109415</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1334721367630828</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1084080216297836</v>
+        <v>0.109923114528247</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1615894070786681</v>
+        <v>0.1623565919394844</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>141</v>
@@ -1626,19 +1626,19 @@
         <v>94784</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>80281</v>
+        <v>81567</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108167</v>
+        <v>109810</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1319244282913097</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1117386402860594</v>
+        <v>0.1135280597827401</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1505509266241179</v>
+        <v>0.1528376173242304</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>226</v>
@@ -1647,19 +1647,19 @@
         <v>184734</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>164886</v>
+        <v>162978</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>211666</v>
+        <v>209584</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.132673522225439</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1184189778813033</v>
+        <v>0.1170491697614004</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1520162504872256</v>
+        <v>0.1505208490496746</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>319169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>296303</v>
+        <v>290746</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>348906</v>
+        <v>348551</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4736006073686199</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4396708998173824</v>
+        <v>0.4314249333773615</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5177259666054058</v>
+        <v>0.5171999071687728</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>504</v>
@@ -1697,19 +1697,19 @@
         <v>329159</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>308781</v>
+        <v>308801</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>354235</v>
+        <v>351358</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4581377527711958</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.429774257089221</v>
+        <v>0.429802221999941</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4930389763199564</v>
+        <v>0.489034922814475</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>807</v>
@@ -1718,19 +1718,19 @@
         <v>648328</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>615778</v>
+        <v>615846</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>683392</v>
+        <v>681039</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4656218047063668</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4422448847780546</v>
+        <v>0.4422936043263805</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4908043766237495</v>
+        <v>0.4891144738835064</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>264802</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>236831</v>
+        <v>236800</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>288177</v>
+        <v>290501</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3929272558682975</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3514228975223867</v>
+        <v>0.3513769872164048</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4276125264953554</v>
+        <v>0.4310620635426756</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>468</v>
@@ -1768,19 +1768,19 @@
         <v>294529</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>272169</v>
+        <v>272061</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>314943</v>
+        <v>313483</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4099378189374945</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3788164019132345</v>
+        <v>0.3786664640907175</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4383516987422816</v>
+        <v>0.4363193966355035</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>727</v>
@@ -1789,19 +1789,19 @@
         <v>559330</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>525176</v>
+        <v>525314</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>594175</v>
+        <v>591452</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4017046730681941</v>
+        <v>0.4017046730681942</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3771751365690601</v>
+        <v>0.3772745542771821</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4267300207166108</v>
+        <v>0.4247737542073443</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>79324</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>63860</v>
+        <v>65429</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>95553</v>
+        <v>96558</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.13696056742907</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1102613099326837</v>
+        <v>0.1129694384881269</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1649823302330083</v>
+        <v>0.1667169427328198</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>130</v>
@@ -1914,19 +1914,19 @@
         <v>82131</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>69806</v>
+        <v>68782</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>95646</v>
+        <v>95834</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1394019231398971</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1184829648090723</v>
+        <v>0.1167443050452993</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1623419729433842</v>
+        <v>0.1626602348188989</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>217</v>
@@ -1935,19 +1935,19 @@
         <v>161455</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>141568</v>
+        <v>143450</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>183019</v>
+        <v>184349</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1381916845460358</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1211703355377655</v>
+        <v>0.1227810939930047</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1566493342204516</v>
+        <v>0.1577872054050206</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>261473</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>241163</v>
+        <v>237740</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>286592</v>
+        <v>284610</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4514593384337795</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.416392231812287</v>
+        <v>0.4104824875796032</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4948297309731329</v>
+        <v>0.4914079835398325</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>468</v>
@@ -1985,19 +1985,19 @@
         <v>282822</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>265143</v>
+        <v>262593</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>301553</v>
+        <v>302089</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.480038783333251</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.450031900866914</v>
+        <v>0.4457038085410607</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5118310206690344</v>
+        <v>0.5127409457325542</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>759</v>
@@ -2006,19 +2006,19 @@
         <v>544295</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>515384</v>
+        <v>512724</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>575056</v>
+        <v>572540</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4658712668770944</v>
+        <v>0.4658712668770945</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4411258496844238</v>
+        <v>0.4388490185192352</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4922000754042563</v>
+        <v>0.4900463162523733</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>238376</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>216185</v>
+        <v>215898</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>258919</v>
+        <v>259964</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4115800941371504</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3732644012394445</v>
+        <v>0.372770123389482</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4470501513588475</v>
+        <v>0.4488529932008244</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>375</v>
@@ -2056,19 +2056,19 @@
         <v>224212</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>207112</v>
+        <v>206563</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>242301</v>
+        <v>243606</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3805592935268519</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3515350629967696</v>
+        <v>0.350602392493416</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4112611743686457</v>
+        <v>0.4134759984260079</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>634</v>
@@ -2077,19 +2077,19 @@
         <v>462588</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>432869</v>
+        <v>434339</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>491951</v>
+        <v>490770</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3959370485768699</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3704999396596478</v>
+        <v>0.3717582431916942</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4210690745954444</v>
+        <v>0.4200578259997989</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>42468</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32794</v>
+        <v>33683</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>52462</v>
+        <v>55665</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1096963877960634</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08470819323575507</v>
+        <v>0.08700474029009905</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1355140412661653</v>
+        <v>0.1437853108509067</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>96</v>
@@ -2202,19 +2202,19 @@
         <v>51309</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>42208</v>
+        <v>42413</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>62108</v>
+        <v>61857</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1204315784572182</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09906945145963837</v>
+        <v>0.09955225036995559</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1457779743424594</v>
+        <v>0.1451895846734083</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>157</v>
@@ -2223,19 +2223,19 @@
         <v>93776</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>79856</v>
+        <v>80120</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>107291</v>
+        <v>109561</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1153207814750962</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0982018039268896</v>
+        <v>0.09852740773245955</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1319404520884015</v>
+        <v>0.1347313780417882</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>191641</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>175394</v>
+        <v>173360</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>208634</v>
+        <v>207234</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4950199183657564</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4530553261419372</v>
+        <v>0.447799972611455</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5389144562197755</v>
+        <v>0.535298426912081</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>377</v>
@@ -2273,19 +2273,19 @@
         <v>202300</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>188443</v>
+        <v>187235</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>217821</v>
+        <v>217402</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.474836027135067</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4423100371839208</v>
+        <v>0.4394750911430773</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5112658065741564</v>
+        <v>0.510284133554894</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>647</v>
@@ -2294,19 +2294,19 @@
         <v>393941</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>371781</v>
+        <v>372254</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>418816</v>
+        <v>416455</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4844451504050015</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4571946898235782</v>
+        <v>0.4577756158300534</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5150352314045433</v>
+        <v>0.5121324356539163</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>153029</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>138035</v>
+        <v>136796</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>171146</v>
+        <v>170216</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3952836938381803</v>
+        <v>0.3952836938381801</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3565544196524605</v>
+        <v>0.353352575766166</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4420823602450336</v>
+        <v>0.4396801756085714</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>328</v>
@@ -2344,19 +2344,19 @@
         <v>172433</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>157485</v>
+        <v>157271</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>186730</v>
+        <v>186386</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4047323944077147</v>
+        <v>0.4047323944077148</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3696475718116872</v>
+        <v>0.3691454393626612</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4382905246750057</v>
+        <v>0.4374832197686311</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>544</v>
@@ -2365,19 +2365,19 @@
         <v>325462</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>301084</v>
+        <v>304044</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>347237</v>
+        <v>347004</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4002340681199023</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3702551039898698</v>
+        <v>0.3738951949716288</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4270123233234515</v>
+        <v>0.4267246431071006</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>37470</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29742</v>
+        <v>29735</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>46491</v>
+        <v>47826</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1297831392319947</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.103014817271008</v>
+        <v>0.1029924988368589</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1610272730789441</v>
+        <v>0.165654364364607</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>133</v>
@@ -2490,19 +2490,19 @@
         <v>65957</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>56050</v>
+        <v>56093</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>77024</v>
+        <v>77110</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1528177449425645</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.129863999962765</v>
+        <v>0.1299640782178172</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1784588747093757</v>
+        <v>0.1786580083320568</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>194</v>
@@ -2511,19 +2511,19 @@
         <v>103427</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>89906</v>
+        <v>89385</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>118912</v>
+        <v>117665</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1435851792252462</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1248145323905719</v>
+        <v>0.1240910632205508</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1650834001427385</v>
+        <v>0.163351000566458</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>145052</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>131861</v>
+        <v>131847</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>160218</v>
+        <v>159911</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5024106794549295</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4567229946500872</v>
+        <v>0.4566741339330707</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5549409223737809</v>
+        <v>0.5538779510117601</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>427</v>
@@ -2561,19 +2561,19 @@
         <v>229687</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>215557</v>
+        <v>212970</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>245302</v>
+        <v>244063</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5321696916335833</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4994316409636475</v>
+        <v>0.493437412980172</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5683481361533146</v>
+        <v>0.5654780702452699</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>642</v>
@@ -2582,19 +2582,19 @@
         <v>374739</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>352351</v>
+        <v>354107</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>395052</v>
+        <v>394885</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.5202418974670948</v>
+        <v>0.5202418974670947</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4891610558903579</v>
+        <v>0.4915988661407543</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5484412606616941</v>
+        <v>0.5482093586141413</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>106190</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>92745</v>
+        <v>93748</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>120227</v>
+        <v>120776</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.367806181313076</v>
+        <v>0.3678061813130759</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.321235474733378</v>
+        <v>0.3247100303444969</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4164237529186361</v>
+        <v>0.4183253110010309</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>248</v>
@@ -2632,19 +2632,19 @@
         <v>135961</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>120967</v>
+        <v>121558</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>149468</v>
+        <v>152119</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3150125634238523</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2802714646639782</v>
+        <v>0.2816421489925671</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3463069992155398</v>
+        <v>0.3524507226924417</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>403</v>
@@ -2653,19 +2653,19 @@
         <v>242151</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>222611</v>
+        <v>224265</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>261822</v>
+        <v>262502</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.336172923307659</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3090454394846558</v>
+        <v>0.3113415339333077</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3634820011988813</v>
+        <v>0.3644261675535259</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>527947</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>482352</v>
+        <v>482048</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>572480</v>
+        <v>573737</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1581738044843941</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1445134075436782</v>
+        <v>0.1444221125490572</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1715157167542964</v>
+        <v>0.1718923941806875</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>771</v>
@@ -2778,19 +2778,19 @@
         <v>574695</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>538170</v>
+        <v>535387</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>615465</v>
+        <v>619437</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.160265766945079</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1500799565620696</v>
+        <v>0.1493037771720671</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1716353257811374</v>
+        <v>0.1727430850739147</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1262</v>
@@ -2799,19 +2799,19 @@
         <v>1102642</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1044175</v>
+        <v>1040039</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1168459</v>
+        <v>1162476</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.1592572700574476</v>
+        <v>0.1592572700574475</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1508126814409217</v>
+        <v>0.1502152438537344</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1687633078302587</v>
+        <v>0.1678992013424893</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>1546811</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1489871</v>
+        <v>1488605</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1613906</v>
+        <v>1613852</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4634269044085055</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4463675263120574</v>
+        <v>0.4459881701653802</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4835283685244292</v>
+        <v>0.4835122485600398</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2419</v>
@@ -2849,19 +2849,19 @@
         <v>1678480</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1629271</v>
+        <v>1625572</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1733616</v>
+        <v>1730429</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4680792639463003</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4543562226219665</v>
+        <v>0.4533247636084246</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4834550231178973</v>
+        <v>0.482566250824069</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3941</v>
@@ -2870,19 +2870,19 @@
         <v>3225291</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3135426</v>
+        <v>3147700</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>3301900</v>
+        <v>3305269</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.46583644639953</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.452857123892281</v>
+        <v>0.4546298232538105</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4769012388619037</v>
+        <v>0.477387878387199</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>1263009</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1201796</v>
+        <v>1198852</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1323837</v>
+        <v>1325182</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3783992911071005</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3600599185509605</v>
+        <v>0.3591777994912305</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3966232976555152</v>
+        <v>0.3970264128963005</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1968</v>
@@ -2920,19 +2920,19 @@
         <v>1332713</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1279978</v>
+        <v>1278825</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1380606</v>
+        <v>1385879</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.3716549691086206</v>
+        <v>0.3716549691086207</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3569486426693318</v>
+        <v>0.3566271234035298</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3850109870830746</v>
+        <v>0.3864813905676184</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3198</v>
@@ -2941,19 +2941,19 @@
         <v>2595722</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2517761</v>
+        <v>2514669</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2679461</v>
+        <v>2677101</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3749062835430226</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3636462358405152</v>
+        <v>0.3631995686116832</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3870009181958278</v>
+        <v>0.3866600249931918</v>
       </c>
     </row>
     <row r="35">
